--- a/aspnet-core/src/AccommodationSearchSystem.Web.Host/wwwroot/Excel_Template/Bao_Cao_Thong_Ke.xlsx
+++ b/aspnet-core/src/AccommodationSearchSystem.Web.Host/wwwroot/Excel_Template/Bao_Cao_Thong_Ke.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATNQLPTRO\aspnet-core\src\AccommodationSearchSystem.Web.Host\wwwroot\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08358074-B954-4060-A913-1945144C043F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E133E873-FB1B-4CAA-80BA-81A6C35AFE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="5052" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Số lịch hẹn trong tháng</t>
-  </si>
-  <si>
-    <t>Số lần đặt phòng thành công</t>
   </si>
   <si>
     <t>Số lương người dùng</t>
@@ -105,7 +102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -119,9 +116,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -438,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5149"/>
+  <dimension ref="A1:E5149"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -450,860 +444,658 @@
     <col min="2" max="2" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="12" style="3"/>
+    <col min="5" max="5" width="17.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="12" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-    </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-    </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-    </row>
-    <row r="136" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-    </row>
-    <row r="213" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="213" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D213" s="5"/>
-      <c r="E213" s="5"/>
-    </row>
-    <row r="222" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="222" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D222" s="5"/>
-      <c r="E222" s="5"/>
-    </row>
-    <row r="254" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="254" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D254" s="5"/>
-      <c r="E254" s="5"/>
-    </row>
-    <row r="260" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="260" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D260" s="5"/>
-      <c r="E260" s="5"/>
-    </row>
-    <row r="276" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="276" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D276" s="5"/>
-      <c r="E276" s="5"/>
-    </row>
-    <row r="342" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="342" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D342" s="5"/>
-      <c r="E342" s="5"/>
-    </row>
-    <row r="391" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="391" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D391" s="5"/>
-      <c r="E391" s="5"/>
-    </row>
-    <row r="414" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="414" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D414" s="5"/>
-      <c r="E414" s="5"/>
-    </row>
-    <row r="415" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="415" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D415" s="5"/>
-      <c r="E415" s="5"/>
-    </row>
-    <row r="419" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="419" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D419" s="5"/>
-      <c r="E419" s="5"/>
-    </row>
-    <row r="424" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="424" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D424" s="5"/>
-      <c r="E424" s="5"/>
-    </row>
-    <row r="464" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="464" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D464" s="5"/>
-      <c r="E464" s="5"/>
-    </row>
-    <row r="488" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="488" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D488" s="5"/>
-      <c r="E488" s="5"/>
-    </row>
-    <row r="502" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="502" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D502" s="5"/>
-      <c r="E502" s="5"/>
-    </row>
-    <row r="521" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="521" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D521" s="5"/>
-      <c r="E521" s="5"/>
-    </row>
-    <row r="558" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="558" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D558" s="5"/>
-      <c r="E558" s="5"/>
-    </row>
-    <row r="614" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="614" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D614" s="5"/>
-      <c r="E614" s="5"/>
-    </row>
-    <row r="626" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="626" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D626" s="5"/>
-      <c r="E626" s="5"/>
-    </row>
-    <row r="644" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="644" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D644" s="5"/>
-      <c r="E644" s="5"/>
-    </row>
-    <row r="681" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="681" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D681" s="5"/>
-      <c r="E681" s="5"/>
-    </row>
-    <row r="705" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="705" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D705" s="5"/>
-      <c r="E705" s="5"/>
-    </row>
-    <row r="726" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="726" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D726" s="5"/>
-      <c r="E726" s="5"/>
-    </row>
-    <row r="727" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="727" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D727" s="5"/>
-      <c r="E727" s="5"/>
-    </row>
-    <row r="749" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="749" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D749" s="5"/>
-      <c r="E749" s="5"/>
-    </row>
-    <row r="771" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="771" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D771" s="5"/>
-      <c r="E771" s="5"/>
-    </row>
-    <row r="780" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="780" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D780" s="5"/>
-      <c r="E780" s="5"/>
-    </row>
-    <row r="794" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="794" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D794" s="5"/>
-      <c r="E794" s="5"/>
-    </row>
-    <row r="857" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="857" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D857" s="5"/>
-      <c r="E857" s="5"/>
-    </row>
-    <row r="875" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="875" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D875" s="5"/>
-      <c r="E875" s="5"/>
-    </row>
-    <row r="903" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="903" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D903" s="5"/>
-      <c r="E903" s="5"/>
-    </row>
-    <row r="934" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="934" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D934" s="5"/>
-      <c r="E934" s="5"/>
-    </row>
-    <row r="974" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="974" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D974" s="5"/>
-      <c r="E974" s="5"/>
-    </row>
-    <row r="975" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="975" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D975" s="5"/>
-      <c r="E975" s="5"/>
-    </row>
-    <row r="976" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="976" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D976" s="5"/>
-      <c r="E976" s="5"/>
-    </row>
-    <row r="978" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="978" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D978" s="5"/>
-      <c r="E978" s="5"/>
-    </row>
-    <row r="1000" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1000" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D1000" s="5"/>
-      <c r="E1000" s="5"/>
-    </row>
-    <row r="1015" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1015" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D1015" s="5"/>
-      <c r="E1015" s="5"/>
-    </row>
-    <row r="1034" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1034" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D1034" s="5"/>
-      <c r="E1034" s="5"/>
-    </row>
-    <row r="1047" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1047" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D1047" s="5"/>
-      <c r="E1047" s="5"/>
-    </row>
-    <row r="1084" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1084" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D1084" s="5"/>
-      <c r="E1084" s="5"/>
-    </row>
-    <row r="1130" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1130" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D1130" s="5"/>
-      <c r="E1130" s="5"/>
-    </row>
-    <row r="1189" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1189" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D1189" s="5"/>
-      <c r="E1189" s="5"/>
-    </row>
-    <row r="1192" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1192" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D1192" s="5"/>
-      <c r="E1192" s="5"/>
-    </row>
-    <row r="1230" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1230" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D1230" s="5"/>
-      <c r="E1230" s="5"/>
-    </row>
-    <row r="1314" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1314" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D1314" s="5"/>
-      <c r="E1314" s="5"/>
-    </row>
-    <row r="1327" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1327" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D1327" s="5"/>
-      <c r="E1327" s="5"/>
-    </row>
-    <row r="1409" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1409" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D1409" s="5"/>
-      <c r="E1409" s="5"/>
-    </row>
-    <row r="1414" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1414" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D1414" s="5"/>
-      <c r="E1414" s="5"/>
-    </row>
-    <row r="1423" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1423" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D1423" s="5"/>
-      <c r="E1423" s="5"/>
-    </row>
-    <row r="1447" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1447" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D1447" s="5"/>
-      <c r="E1447" s="5"/>
-    </row>
-    <row r="1472" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1472" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D1472" s="5"/>
-      <c r="E1472" s="5"/>
-    </row>
-    <row r="1510" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1510" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D1510" s="5"/>
-      <c r="E1510" s="5"/>
-    </row>
-    <row r="1525" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1525" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D1525" s="5"/>
-      <c r="E1525" s="5"/>
-    </row>
-    <row r="1545" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1545" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D1545" s="5"/>
-      <c r="E1545" s="5"/>
-    </row>
-    <row r="1608" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1608" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D1608" s="5"/>
-      <c r="E1608" s="5"/>
-    </row>
-    <row r="1820" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1820" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D1820" s="5"/>
-      <c r="E1820" s="5"/>
-    </row>
-    <row r="1836" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1836" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D1836" s="5"/>
-      <c r="E1836" s="5"/>
-    </row>
-    <row r="1844" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1844" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D1844" s="5"/>
-      <c r="E1844" s="5"/>
-    </row>
-    <row r="1880" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1880" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D1880" s="5"/>
-      <c r="E1880" s="5"/>
-    </row>
-    <row r="1884" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1884" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D1884" s="5"/>
-      <c r="E1884" s="5"/>
-    </row>
-    <row r="1919" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1919" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D1919" s="5"/>
-      <c r="E1919" s="5"/>
-    </row>
-    <row r="1947" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1947" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D1947" s="5"/>
-      <c r="E1947" s="5"/>
-    </row>
-    <row r="2073" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2073" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D2073" s="5"/>
-      <c r="E2073" s="5"/>
-    </row>
-    <row r="2074" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2074" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D2074" s="5"/>
-      <c r="E2074" s="5"/>
-    </row>
-    <row r="2101" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2101" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D2101" s="5"/>
-      <c r="E2101" s="5"/>
-    </row>
-    <row r="2170" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2170" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D2170" s="5"/>
-      <c r="E2170" s="5"/>
-    </row>
-    <row r="2299" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2299" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D2299" s="5"/>
-      <c r="E2299" s="5"/>
-    </row>
-    <row r="2316" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2316" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D2316" s="5"/>
-      <c r="E2316" s="5"/>
-    </row>
-    <row r="2324" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2324" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D2324" s="5"/>
-      <c r="E2324" s="5"/>
-    </row>
-    <row r="2404" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2404" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D2404" s="5"/>
-      <c r="E2404" s="5"/>
-    </row>
-    <row r="2439" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2439" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D2439" s="5"/>
-      <c r="E2439" s="5"/>
-    </row>
-    <row r="2462" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2462" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D2462" s="5"/>
-      <c r="E2462" s="5"/>
-    </row>
-    <row r="2470" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2470" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D2470" s="5"/>
-      <c r="E2470" s="5"/>
-    </row>
-    <row r="2471" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2471" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D2471" s="5"/>
-      <c r="E2471" s="5"/>
-    </row>
-    <row r="2494" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2494" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D2494" s="5"/>
-      <c r="E2494" s="5"/>
-    </row>
-    <row r="2513" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2513" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D2513" s="5"/>
-      <c r="E2513" s="5"/>
-    </row>
-    <row r="2528" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2528" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D2528" s="5"/>
-      <c r="E2528" s="5"/>
-    </row>
-    <row r="2556" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2556" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D2556" s="5"/>
-      <c r="E2556" s="5"/>
-    </row>
-    <row r="2575" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2575" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D2575" s="5"/>
-      <c r="E2575" s="5"/>
-    </row>
-    <row r="2580" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2580" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D2580" s="5"/>
-      <c r="E2580" s="5"/>
-    </row>
-    <row r="2582" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2582" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D2582" s="5"/>
-      <c r="E2582" s="5"/>
-    </row>
-    <row r="2609" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2609" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D2609" s="5"/>
-      <c r="E2609" s="5"/>
-    </row>
-    <row r="2614" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2614" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D2614" s="5"/>
-      <c r="E2614" s="5"/>
-    </row>
-    <row r="2627" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2627" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D2627" s="5"/>
-      <c r="E2627" s="5"/>
-    </row>
-    <row r="2640" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2640" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D2640" s="5"/>
-      <c r="E2640" s="5"/>
-    </row>
-    <row r="2669" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2669" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D2669" s="5"/>
-      <c r="E2669" s="5"/>
-    </row>
-    <row r="2680" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2680" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D2680" s="5"/>
-      <c r="E2680" s="5"/>
-    </row>
-    <row r="2692" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2692" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D2692" s="5"/>
-      <c r="E2692" s="5"/>
-    </row>
-    <row r="2707" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2707" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D2707" s="5"/>
-      <c r="E2707" s="5"/>
-    </row>
-    <row r="2722" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2722" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D2722" s="5"/>
-      <c r="E2722" s="5"/>
-    </row>
-    <row r="2729" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2729" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D2729" s="5"/>
-      <c r="E2729" s="5"/>
-    </row>
-    <row r="2764" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2764" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D2764" s="5"/>
-      <c r="E2764" s="5"/>
-    </row>
-    <row r="2783" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2783" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D2783" s="5"/>
-      <c r="E2783" s="5"/>
-    </row>
-    <row r="2801" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2801" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D2801" s="5"/>
-      <c r="E2801" s="5"/>
-    </row>
-    <row r="2804" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2804" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D2804" s="5"/>
-      <c r="E2804" s="5"/>
-    </row>
-    <row r="2807" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2807" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D2807" s="5"/>
-      <c r="E2807" s="5"/>
-    </row>
-    <row r="2832" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2832" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D2832" s="5"/>
-      <c r="E2832" s="5"/>
-    </row>
-    <row r="2847" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2847" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D2847" s="5"/>
-      <c r="E2847" s="5"/>
-    </row>
-    <row r="2850" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2850" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D2850" s="5"/>
-      <c r="E2850" s="5"/>
-    </row>
-    <row r="2851" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2851" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D2851" s="5"/>
-      <c r="E2851" s="5"/>
-    </row>
-    <row r="3004" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3004" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D3004" s="5"/>
-      <c r="E3004" s="5"/>
-    </row>
-    <row r="3120" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3120" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D3120" s="5"/>
-      <c r="E3120" s="5"/>
-    </row>
-    <row r="3152" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3152" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D3152" s="5"/>
-      <c r="E3152" s="5"/>
-    </row>
-    <row r="3239" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3239" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D3239" s="5"/>
-      <c r="E3239" s="5"/>
-    </row>
-    <row r="3267" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3267" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D3267" s="5"/>
-      <c r="E3267" s="5"/>
-    </row>
-    <row r="3268" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3268" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D3268" s="5"/>
-      <c r="E3268" s="5"/>
-    </row>
-    <row r="3413" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3413" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D3413" s="5"/>
-      <c r="E3413" s="5"/>
-    </row>
-    <row r="3440" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3440" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D3440" s="5"/>
-      <c r="E3440" s="5"/>
-    </row>
-    <row r="3468" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3468" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D3468" s="5"/>
-      <c r="E3468" s="5"/>
-    </row>
-    <row r="3473" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3473" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D3473" s="5"/>
-      <c r="E3473" s="5"/>
-    </row>
-    <row r="3474" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3474" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D3474" s="5"/>
-      <c r="E3474" s="5"/>
-    </row>
-    <row r="3481" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3481" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D3481" s="5"/>
-      <c r="E3481" s="5"/>
-    </row>
-    <row r="3514" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3514" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D3514" s="5"/>
-      <c r="E3514" s="5"/>
-    </row>
-    <row r="3525" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3525" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D3525" s="5"/>
-      <c r="E3525" s="5"/>
-    </row>
-    <row r="3526" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3526" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D3526" s="5"/>
-      <c r="E3526" s="5"/>
-    </row>
-    <row r="3575" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3575" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D3575" s="5"/>
-      <c r="E3575" s="5"/>
-    </row>
-    <row r="3578" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3578" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D3578" s="5"/>
-      <c r="E3578" s="5"/>
-    </row>
-    <row r="3633" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3633" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D3633" s="5"/>
-      <c r="E3633" s="5"/>
-    </row>
-    <row r="3634" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3634" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D3634" s="5"/>
-      <c r="E3634" s="5"/>
-    </row>
-    <row r="3663" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3663" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D3663" s="5"/>
-      <c r="E3663" s="5"/>
-    </row>
-    <row r="3665" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3665" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D3665" s="5"/>
-      <c r="E3665" s="5"/>
-    </row>
-    <row r="3678" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3678" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D3678" s="5"/>
-      <c r="E3678" s="5"/>
-    </row>
-    <row r="3680" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3680" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D3680" s="5"/>
-      <c r="E3680" s="5"/>
-    </row>
-    <row r="3682" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3682" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D3682" s="5"/>
-      <c r="E3682" s="5"/>
-    </row>
-    <row r="3708" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3708" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D3708" s="5"/>
-      <c r="E3708" s="5"/>
-    </row>
-    <row r="3729" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3729" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D3729" s="5"/>
-      <c r="E3729" s="5"/>
-    </row>
-    <row r="3737" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3737" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D3737" s="5"/>
-      <c r="E3737" s="5"/>
-    </row>
-    <row r="3813" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3813" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D3813" s="5"/>
-      <c r="E3813" s="5"/>
-    </row>
-    <row r="3844" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3844" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D3844" s="5"/>
-      <c r="E3844" s="5"/>
-    </row>
-    <row r="3879" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3879" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D3879" s="5"/>
-      <c r="E3879" s="5"/>
-    </row>
-    <row r="3904" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3904" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D3904" s="5"/>
-      <c r="E3904" s="5"/>
-    </row>
-    <row r="3906" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3906" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D3906" s="5"/>
-      <c r="E3906" s="5"/>
-    </row>
-    <row r="3923" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3923" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D3923" s="5"/>
-      <c r="E3923" s="5"/>
-    </row>
-    <row r="3982" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3982" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D3982" s="5"/>
-      <c r="E3982" s="5"/>
-    </row>
-    <row r="3988" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3988" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D3988" s="5"/>
-      <c r="E3988" s="5"/>
-    </row>
-    <row r="4020" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4020" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4020" s="5"/>
-      <c r="E4020" s="5"/>
-    </row>
-    <row r="4027" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4027" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4027" s="5"/>
-      <c r="E4027" s="5"/>
-    </row>
-    <row r="4115" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4115" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4115" s="5"/>
-      <c r="E4115" s="5"/>
-    </row>
-    <row r="4157" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4157" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4157" s="5"/>
-      <c r="E4157" s="5"/>
-    </row>
-    <row r="4158" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4158" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4158" s="5"/>
-      <c r="E4158" s="5"/>
-    </row>
-    <row r="4174" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4174" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4174" s="5"/>
-      <c r="E4174" s="5"/>
-    </row>
-    <row r="4191" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4191" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4191" s="5"/>
-      <c r="E4191" s="5"/>
-    </row>
-    <row r="4192" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4192" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4192" s="5"/>
-      <c r="E4192" s="5"/>
-    </row>
-    <row r="4220" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4220" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4220" s="5"/>
-      <c r="E4220" s="5"/>
-    </row>
-    <row r="4221" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4221" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4221" s="5"/>
-      <c r="E4221" s="5"/>
-    </row>
-    <row r="4273" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4273" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4273" s="5"/>
-      <c r="E4273" s="5"/>
-    </row>
-    <row r="4274" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4274" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4274" s="5"/>
-      <c r="E4274" s="5"/>
-    </row>
-    <row r="4282" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4282" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4282" s="5"/>
-      <c r="E4282" s="5"/>
-    </row>
-    <row r="4288" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4288" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4288" s="5"/>
-      <c r="E4288" s="5"/>
-    </row>
-    <row r="4359" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4359" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4359" s="5"/>
-      <c r="E4359" s="5"/>
-    </row>
-    <row r="4360" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4360" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4360" s="5"/>
-      <c r="E4360" s="5"/>
-    </row>
-    <row r="4393" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4393" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4393" s="5"/>
-      <c r="E4393" s="5"/>
-    </row>
-    <row r="4395" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4395" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4395" s="5"/>
-      <c r="E4395" s="5"/>
-    </row>
-    <row r="4398" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4398" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4398" s="5"/>
-      <c r="E4398" s="5"/>
-    </row>
-    <row r="4402" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4402" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4402" s="5"/>
-      <c r="E4402" s="5"/>
-    </row>
-    <row r="4416" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4416" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4416" s="5"/>
-      <c r="E4416" s="5"/>
-    </row>
-    <row r="4420" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4420" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4420" s="5"/>
-      <c r="E4420" s="5"/>
-    </row>
-    <row r="4421" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4421" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4421" s="5"/>
-      <c r="E4421" s="5"/>
-    </row>
-    <row r="4429" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4429" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4429" s="5"/>
-      <c r="E4429" s="5"/>
-    </row>
-    <row r="4437" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4437" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4437" s="5"/>
-      <c r="E4437" s="5"/>
-    </row>
-    <row r="4451" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4451" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4451" s="5"/>
-      <c r="E4451" s="5"/>
-    </row>
-    <row r="4460" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4460" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4460" s="5"/>
-      <c r="E4460" s="5"/>
-    </row>
-    <row r="4462" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4462" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4462" s="5"/>
-      <c r="E4462" s="5"/>
-    </row>
-    <row r="4476" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4476" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4476" s="5"/>
-      <c r="E4476" s="5"/>
-    </row>
-    <row r="4481" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4481" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4481" s="5"/>
-      <c r="E4481" s="5"/>
-    </row>
-    <row r="4497" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4497" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4497" s="5"/>
-      <c r="E4497" s="5"/>
-    </row>
-    <row r="4499" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4499" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4499" s="5"/>
-      <c r="E4499" s="5"/>
-    </row>
-    <row r="4504" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4504" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4504" s="5"/>
-      <c r="E4504" s="5"/>
-    </row>
-    <row r="4507" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4507" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4507" s="5"/>
-      <c r="E4507" s="5"/>
-    </row>
-    <row r="4512" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4512" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4512" s="5"/>
-      <c r="E4512" s="5"/>
-    </row>
-    <row r="4519" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4519" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4519" s="5"/>
-      <c r="E4519" s="5"/>
-    </row>
-    <row r="4532" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4532" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4532" s="5"/>
-      <c r="E4532" s="5"/>
-    </row>
-    <row r="4647" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4647" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4647" s="5"/>
-      <c r="E4647" s="5"/>
-    </row>
-    <row r="4820" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4820" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4820" s="5"/>
-      <c r="E4820" s="5"/>
-    </row>
-    <row r="4976" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4976" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4976" s="5"/>
-      <c r="E4976" s="5"/>
-    </row>
-    <row r="4984" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4984" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4984" s="5"/>
-      <c r="E4984" s="5"/>
-    </row>
-    <row r="5037" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5037" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D5037" s="5"/>
-      <c r="E5037" s="5"/>
-    </row>
-    <row r="5045" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5045" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D5045" s="5"/>
-      <c r="E5045" s="5"/>
-    </row>
-    <row r="5074" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5074" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D5074" s="5"/>
-      <c r="E5074" s="5"/>
-    </row>
-    <row r="5124" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5124" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D5124" s="5"/>
-      <c r="E5124" s="5"/>
-    </row>
-    <row r="5144" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5144" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D5144" s="5"/>
-      <c r="E5144" s="5"/>
-    </row>
-    <row r="5147" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5147" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D5147" s="5"/>
-      <c r="E5147" s="5"/>
-    </row>
-    <row r="5149" spans="4:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5149" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D5149" s="5"/>
-      <c r="E5149" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
